--- a/HTC/proyecto/proyecto 3 solución.xlsx
+++ b/HTC/proyecto/proyecto 3 solución.xlsx
@@ -8,111 +8,113 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VaioPC\Dropbox (Uniandes)\UNIANDES\Docencia Uniandes\MASEP\Curso 2 - OPE\Semana 05-DHT\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3127960-2291-40B2-BB94-64A25823AD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{427ECA44-17E5-4C3B-9ED5-CB061D0531A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="40" r:id="rId1"/>
-    <sheet name="HTC CP3" sheetId="33" r:id="rId2"/>
-    <sheet name="HTC CP4" sheetId="34" r:id="rId3"/>
-    <sheet name="ResumenGlobal" sheetId="10" r:id="rId4"/>
-    <sheet name="R4" sheetId="39" r:id="rId5"/>
-    <sheet name="R3" sheetId="38" r:id="rId6"/>
+    <sheet name="3a" sheetId="41" r:id="rId2"/>
+    <sheet name="4a" sheetId="42" r:id="rId3"/>
+    <sheet name="HTC CP3" sheetId="33" r:id="rId4"/>
+    <sheet name="HTC CP4" sheetId="34" r:id="rId5"/>
+    <sheet name="ResumenGlobal" sheetId="10" r:id="rId6"/>
+    <sheet name="R4" sheetId="39" r:id="rId7"/>
+    <sheet name="R3" sheetId="38" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'HTC CP3'!$C$21:$C$30</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'HTC CP4'!$C$21:$C$30</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'HTC CP3'!$C$21:$C$28</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'HTC CP4'!$C$21:$C$28</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'HTC CP3'!$C$21:$C$30</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'HTC CP4'!$C$21:$C$30</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'HTC CP3'!$D$13:$D$14</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'HTC CP4'!$D$13:$D$14</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'HTC CP3'!$G$7:$G$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'HTC CP4'!$G$7:$G$10</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'HTC CP3'!#REF!</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'HTC CP4'!#REF!</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'HTC CP3'!$D$11:$D$12</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'HTC CP4'!$D$11:$D$12</definedName>
-    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'HTC CP3'!$D$10</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'HTC CP4'!$D$10</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'HTC CP3'!$D$21:$D$28</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'HTC CP4'!$D$21:$D$28</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'HTC CP3'!$A$21:$A$30</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'HTC CP4'!$A$21:$A$30</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">22</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">22</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'HTC CP3'!$C$21:$C$30</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'HTC CP4'!$C$21:$C$30</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'HTC CP3'!$C$21:$C$28</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'HTC CP4'!$C$21:$C$28</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'HTC CP3'!$C$21:$C$30</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'HTC CP4'!$C$21:$C$30</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'HTC CP3'!$D$13:$D$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'HTC CP4'!$D$13:$D$14</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'HTC CP3'!$G$7:$G$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'HTC CP4'!$G$7:$G$10</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'HTC CP3'!#REF!</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'HTC CP4'!#REF!</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'HTC CP3'!$D$11:$D$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'HTC CP4'!$D$11:$D$12</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'HTC CP3'!$D$10</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'HTC CP4'!$D$10</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'HTC CP3'!$D$21:$D$28</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'HTC CP4'!$D$21:$D$28</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'HTC CP3'!$A$21:$A$30</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'HTC CP4'!$A$21:$A$30</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">22</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">22</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -132,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="182">
   <si>
     <t>Pd1</t>
   </si>
@@ -228,6 +230,48 @@
   </si>
   <si>
     <t>lambda2</t>
+  </si>
+  <si>
+    <t>$C$21</t>
+  </si>
+  <si>
+    <t>$C$22</t>
+  </si>
+  <si>
+    <t>$C$23</t>
+  </si>
+  <si>
+    <t>$C$24</t>
+  </si>
+  <si>
+    <t>$C$25</t>
+  </si>
+  <si>
+    <t>$C$26</t>
+  </si>
+  <si>
+    <t>$C$27</t>
+  </si>
+  <si>
+    <t>$C$28</t>
+  </si>
+  <si>
+    <t>$C$29</t>
+  </si>
+  <si>
+    <t>$C$30</t>
+  </si>
+  <si>
+    <t>$G$7</t>
+  </si>
+  <si>
+    <t>$G$8</t>
+  </si>
+  <si>
+    <t>$G$9</t>
+  </si>
+  <si>
+    <t>$G$10</t>
   </si>
   <si>
     <t>q1</t>
@@ -870,6 +914,9 @@
     <t>Sin costo del agua</t>
   </si>
   <si>
+    <t>Con costo del agua</t>
+  </si>
+  <si>
     <t>Escenario NIÑA</t>
   </si>
   <si>
@@ -934,6 +981,99 @@
       </rPr>
       <t>hs2 ($/MWh)</t>
     </r>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [E2_Despacho_Hidrotermico2.xlsx]HTC CP3</t>
+  </si>
+  <si>
+    <t>Report Created: 27/05/2021 10:30:31 a. m.</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Lagrange</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Pg1 Plosses2 %</t>
+  </si>
+  <si>
+    <t>Pg2 Plosses2 %</t>
+  </si>
+  <si>
+    <t>Pd1 Plosses2 %</t>
+  </si>
+  <si>
+    <t>Pd2 Plosses2 %</t>
+  </si>
+  <si>
+    <t>Ph1 Plosses2 %</t>
+  </si>
+  <si>
+    <t>Ph2 Plosses2 %</t>
+  </si>
+  <si>
+    <t>V1 Plosses2 %</t>
+  </si>
+  <si>
+    <t>V2 Plosses2 %</t>
+  </si>
+  <si>
+    <t>s1 Plosses2 %</t>
+  </si>
+  <si>
+    <t>s2 Plosses2 %</t>
+  </si>
+  <si>
+    <t>$D$13</t>
+  </si>
+  <si>
+    <t>$D$14</t>
+  </si>
+  <si>
+    <t>lamda1 Ejemplo 2: Despacho Económico Hidrotérmico</t>
+  </si>
+  <si>
+    <t>lamda2 Ejemplo 2: Despacho Económico Hidrotérmico</t>
+  </si>
+  <si>
+    <t>Y1 Ejemplo 2: Despacho Económico Hidrotérmico</t>
+  </si>
+  <si>
+    <t>Y2 Ejemplo 2: Despacho Económico Hidrotérmico</t>
+  </si>
+  <si>
+    <t>Worksheet: [E2_Despacho_Hidrotermico2.xlsx]HTC CP4</t>
+  </si>
+  <si>
+    <t>Report Created: 27/05/2021 10:31:14 a. m.</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1086,7 @@
     <numFmt numFmtId="166" formatCode="0.00000000"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,8 +1166,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1064,13 +1212,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1096,6 +1268,66 @@
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1134,7 +1366,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1147,10 +1379,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1178,10 +1410,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1194,30 +1426,75 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1277,8 +1554,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>719992</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61498</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1425,7 +1702,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>999</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104793</xdr:rowOff>
+      <xdr:rowOff>884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1748,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559E3E45-D37B-1840-B5E9-101CEE65D454}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1760,12 +2037,12 @@
     <row r="1" spans="1:9" s="11" customFormat="1"/>
     <row r="2" spans="1:9" s="11" customFormat="1" ht="18.75">
       <c r="G2" s="12" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="18.75">
       <c r="G3" s="13" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1"/>
@@ -1773,24 +2050,24 @@
     <row r="6" spans="1:9" s="21" customFormat="1"/>
     <row r="7" spans="1:9" s="21" customFormat="1">
       <c r="F7" s="40" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:9" s="21" customFormat="1">
       <c r="A8" s="23" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I8" s="26"/>
     </row>
@@ -1805,7 +2082,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F9" s="27">
         <v>30</v>
@@ -1831,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F10" s="28">
         <v>10</v>
@@ -1860,18 +2137,18 @@
     <row r="12" spans="1:9" s="21" customFormat="1" hidden="1"/>
     <row r="13" spans="1:9" s="21" customFormat="1">
       <c r="A13" s="21" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B13" s="21">
         <v>1000</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="21" customFormat="1">
       <c r="A14" s="21" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B14" s="21">
         <v>60</v>
@@ -1882,7 +2159,7 @@
     </row>
     <row r="15" spans="1:9" s="21" customFormat="1">
       <c r="A15" s="21" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B15" s="21">
         <v>80</v>
@@ -1893,7 +2170,7 @@
     </row>
     <row r="16" spans="1:9" s="21" customFormat="1">
       <c r="A16" s="21" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B16" s="21">
         <v>0.02</v>
@@ -1904,7 +2181,7 @@
     </row>
     <row r="17" spans="1:3" s="21" customFormat="1">
       <c r="A17" s="21" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B17" s="21">
         <v>0.03</v>
@@ -1915,7 +2192,7 @@
     </row>
     <row r="18" spans="1:3" s="21" customFormat="1">
       <c r="A18" s="21" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B18" s="21">
         <f>8760/2</f>
@@ -1927,7 +2204,7 @@
     </row>
     <row r="19" spans="1:3" s="21" customFormat="1">
       <c r="A19" s="21" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B19" s="21">
         <f>B18</f>
@@ -1939,7 +2216,7 @@
     </row>
     <row r="20" spans="1:3" s="21" customFormat="1">
       <c r="A20" s="25" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B20" s="21">
         <v>1000</v>
@@ -1950,7 +2227,7 @@
     </row>
     <row r="21" spans="1:3" s="21" customFormat="1">
       <c r="A21" s="21" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B21" s="21">
         <f>(B20-B30)/B29</f>
@@ -1961,39 +2238,36 @@
       </c>
     </row>
     <row r="22" spans="1:3" s="21" customFormat="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="21">
-        <f>10000*24</f>
-        <v>240000</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>46</v>
+      <c r="B22" s="57">
+        <v>0</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="21" customFormat="1">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="21">
-        <f>10*24</f>
-        <v>240</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>44</v>
+      <c r="B23" s="57">
+        <v>0</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="21" customFormat="1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="21">
-        <f>0.000005*24</f>
-        <v>1.2000000000000002E-4</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>45</v>
+      <c r="B24" s="57">
+        <v>0</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="21" customFormat="1">
@@ -2019,7 +2293,7 @@
     </row>
     <row r="29" spans="1:3" s="21" customFormat="1">
       <c r="A29" s="21" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B29" s="21">
         <v>12000</v>
@@ -2030,7 +2304,7 @@
     </row>
     <row r="30" spans="1:3" s="21" customFormat="1">
       <c r="A30" s="21" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B30" s="21">
         <v>75</v>
@@ -2041,7 +2315,7 @@
     </row>
     <row r="31" spans="1:3" s="21" customFormat="1">
       <c r="A31" s="21" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B31" s="21">
         <v>8000</v>
@@ -2052,7 +2326,7 @@
     </row>
     <row r="32" spans="1:3" s="21" customFormat="1">
       <c r="A32" s="21" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B32" s="21">
         <v>0</v>
@@ -2063,7 +2337,7 @@
     </row>
     <row r="33" spans="1:3" s="21" customFormat="1">
       <c r="A33" s="21" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B33" s="21">
         <v>15000</v>
@@ -2074,7 +2348,7 @@
     </row>
     <row r="34" spans="1:3" s="21" customFormat="1">
       <c r="A34" s="21" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B34" s="21">
         <v>0</v>
@@ -2085,7 +2359,7 @@
     </row>
     <row r="35" spans="1:3" s="21" customFormat="1">
       <c r="A35" s="21" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B35" s="21">
         <v>12972.972972972972</v>
@@ -2096,7 +2370,7 @@
     </row>
     <row r="36" spans="1:3" s="21" customFormat="1">
       <c r="A36" s="21" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B36" s="21">
         <v>0</v>
@@ -2107,7 +2381,7 @@
     </row>
     <row r="37" spans="1:3" s="21" customFormat="1">
       <c r="A37" s="21" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B37" s="21">
         <v>135000</v>
@@ -2118,18 +2392,18 @@
     </row>
     <row r="38" spans="1:3" s="21" customFormat="1">
       <c r="A38" s="21" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B38" s="21">
         <v>50000</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="21" customFormat="1">
       <c r="A39" s="21" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B39" s="21">
         <v>0</v>
@@ -2140,7 +2414,7 @@
     </row>
     <row r="40" spans="1:3" s="21" customFormat="1">
       <c r="A40" s="21" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B40" s="21">
         <v>30</v>
@@ -2159,10 +2433,644 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA5B0FF-12FD-45B3-9245-E81CF61010F4}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B8" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <v>59953.693080773577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>147554.7866426101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="41">
+        <v>12372.157123210285</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="41">
+        <v>12372.15712306426</v>
+      </c>
+      <c r="E12" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="41">
+        <v>13459.030064847519</v>
+      </c>
+      <c r="E13" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="41">
+        <v>13459.030064770663</v>
+      </c>
+      <c r="E14" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="41">
+        <v>99960</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="41">
+        <v>135000</v>
+      </c>
+      <c r="E16" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="41">
+        <v>6.5936073059360716</v>
+      </c>
+      <c r="E17" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B18" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B22" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="41">
+        <v>22.000000000135969</v>
+      </c>
+      <c r="E23" s="41">
+        <v>-96138642.842070296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="41">
+        <v>22</v>
+      </c>
+      <c r="E24" s="41">
+        <v>-96138642.842070282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="41">
+        <v>8.1583493738435209E-8</v>
+      </c>
+      <c r="E25" s="41">
+        <v>-202848.359375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="41">
+        <v>0</v>
+      </c>
+      <c r="E26" s="41">
+        <v>-202848.359375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="41">
+        <v>5.9556623455137014E-7</v>
+      </c>
+      <c r="E27" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B28" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="42">
+        <v>0</v>
+      </c>
+      <c r="E28" s="42">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CBE136-042F-4F2E-8EB6-08890E1AD779}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B8" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="41">
+        <v>5521.6066698706773</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="41">
+        <v>3575.253040080443</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="41">
+        <v>9329.3151987386573</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="41">
+        <v>9152.2239656721504</v>
+      </c>
+      <c r="E12" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="41">
+        <v>3898.9178932269192</v>
+      </c>
+      <c r="E13" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="41">
+        <v>5777.2291880688381</v>
+      </c>
+      <c r="E14" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="41">
+        <v>67518.281081674431</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="41">
+        <v>50000</v>
+      </c>
+      <c r="E16" s="41">
+        <v>169662.60014117946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="41">
+        <v>0</v>
+      </c>
+      <c r="E17" s="41">
+        <v>743121248.19075918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B18" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0</v>
+      </c>
+      <c r="E18" s="42">
+        <v>743122188.618366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B22" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="41">
+        <v>6.0003924472216292</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="41">
+        <v>8.9996075530180022</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="41">
+        <v>6.9810994318686426E-8</v>
+      </c>
+      <c r="E25" s="41">
+        <v>-1230186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="41">
+        <v>7.1715476224198937E-8</v>
+      </c>
+      <c r="E26" s="41">
+        <v>-1289977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="41">
+        <v>5.0516609917394817E-7</v>
+      </c>
+      <c r="E27" s="41">
+        <v>-169662.38543168019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B28" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="42">
+        <v>5.4441989050246775E-7</v>
+      </c>
+      <c r="E28" s="42">
+        <v>-169662.60014117946</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P1048574"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2179,19 +3087,19 @@
     <row r="1" spans="1:12" s="11" customFormat="1"/>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="18.75">
       <c r="G2" s="12" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="11" customFormat="1" ht="18.75">
       <c r="G3" s="13" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1"/>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <f>K16*(K12*C21+K14*C21^2)+K17*(K13*C22+K15*C22^2)</f>
@@ -2205,14 +3113,14 @@
         <v>8.1583493738435209E-8</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <f>K16*(K18*C23-0.5*K19*C23^2)+K17*(K18*C24-0.5*K19*C24^2)</f>
@@ -2238,7 +3146,7 @@
     </row>
     <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <f>(K20-K21*C28-K22*C28^2)*(K16+K17)/24</f>
@@ -2264,7 +3172,7 @@
     </row>
     <row r="10" spans="1:12" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D10" s="22">
         <f>D7-D8+D9</f>
@@ -2290,7 +3198,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="C11" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D11">
         <f>K12+2*K14*C21</f>
@@ -2300,19 +3208,19 @@
         <v>2</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K11" s="15">
         <f>Dataset!B13</f>
         <v>1000</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D12">
         <f>K13+2*K15*C22</f>
@@ -2322,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K12" s="15">
         <f>Dataset!B14</f>
@@ -2334,7 +3242,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" s="20" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1">
         <f>$K$8+$K$9*C25+$K$10*C25^2</f>
@@ -2344,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K13" s="15">
         <f>Dataset!B15</f>
@@ -2356,7 +3264,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="20" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
         <f>$K$8+$K$9*C26+$K$10*C26^2</f>
@@ -2366,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K14" s="15">
         <f>Dataset!B16</f>
@@ -2378,7 +3286,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="C15" s="20" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1">
         <f>C21+C25-C23</f>
@@ -2388,7 +3296,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="K15" s="15">
         <f>Dataset!B17</f>
@@ -2400,7 +3308,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" s="20" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <f>C22+C26-C24</f>
@@ -2410,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="K16" s="15">
         <f>Dataset!B18</f>
@@ -2422,17 +3330,17 @@
     </row>
     <row r="17" spans="1:12">
       <c r="C17" s="20" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D17">
         <f>100*D15/(C21+C23)</f>
         <v>8.7848297658477801</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="K17" s="15">
         <f>Dataset!B19</f>
@@ -2444,17 +3352,17 @@
     </row>
     <row r="18" spans="1:12">
       <c r="C18" s="20" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D18">
         <f>100*D16/(C22+C24)</f>
         <v>8.7848297665105335</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K18" s="15">
         <f>Dataset!B20</f>
@@ -2466,7 +3374,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="J19" s="15" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="K19" s="15">
         <f>Dataset!B21</f>
@@ -2478,16 +3386,17 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K20" s="15">
+        <f>Dataset!B22</f>
         <v>0</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2512,10 +3421,11 @@
         <v>23</v>
       </c>
       <c r="K21" s="15">
+        <f>Dataset!B23</f>
         <v>0</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2540,10 +3450,11 @@
         <v>24</v>
       </c>
       <c r="K22" s="15">
+        <f>Dataset!B24</f>
         <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2594,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K24" s="15">
         <f>Dataset!G9</f>
@@ -2623,7 +3534,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="K25" s="15">
         <f>Dataset!G10</f>
@@ -2679,7 +3590,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K27" s="15">
         <f>Dataset!B29</f>
@@ -2708,7 +3619,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K28" s="15">
         <f>Dataset!B30</f>
@@ -2737,7 +3648,7 @@
         <v>7</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="K29" s="15">
         <f>Dataset!B31</f>
@@ -2766,7 +3677,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="K30" s="15">
         <f>Dataset!B32</f>
@@ -2778,7 +3689,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="J31" s="15" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K31" s="15">
         <f>Dataset!B33</f>
@@ -2790,13 +3701,13 @@
     </row>
     <row r="32" spans="1:12">
       <c r="D32" s="19" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K32" s="15">
         <f>Dataset!B34</f>
@@ -2819,7 +3730,7 @@
         <v>38.832969727718726</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K33" s="15">
         <f>Dataset!B35</f>
@@ -2842,7 +3753,7 @@
         <v>38.832969737199519</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="K34" s="15">
         <f>Dataset!B36</f>
@@ -2854,7 +3765,7 @@
     </row>
     <row r="35" spans="3:12">
       <c r="J35" s="15" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K35" s="15">
         <f>Dataset!B37</f>
@@ -2866,19 +3777,19 @@
     </row>
     <row r="36" spans="3:12">
       <c r="J36" s="15" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="K36" s="15">
         <f>Dataset!B38</f>
         <v>50000</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="J37" s="15" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="K37" s="15">
         <f>Dataset!B39</f>
@@ -2890,7 +3801,7 @@
     </row>
     <row r="38" spans="3:12">
       <c r="J38" s="15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K38" s="15">
         <f>Dataset!B40</f>
@@ -2917,12 +3828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P1048574"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2939,51 +3850,51 @@
     <row r="1" spans="1:12" s="11" customFormat="1"/>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="18.75">
       <c r="G2" s="12" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="11" customFormat="1" ht="18.75">
       <c r="G3" s="13" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1"/>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <f>K16*(K12*C21+K14*C21^2)+K17*(K13*C22+K15*C22^2)</f>
-        <v>7054218051.7750854</v>
+        <v>7054219848.1738329</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7">
         <f>C23+K26*C25^2-(C21+C25)</f>
-        <v>-8.985807653516531E-9</v>
+        <v>6.9810994318686426E-8</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <f>K16*(K18*C23-0.5*K19*C23^2)+K17*(K18*C24-0.5*K19*C24^2)</f>
-        <v>52116078590.671455</v>
+        <v>52116080388.072922</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8">
         <f>C24+K26*C26^2-(C22+C26)</f>
-        <v>-8.5456122178584337E-9</v>
+        <v>7.1715476224198937E-8</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>19</v>
@@ -2998,7 +3909,7 @@
     </row>
     <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <f>(K20-K21*C28-K22*C28^2)*(K16+K17)/24</f>
@@ -3009,7 +3920,7 @@
       </c>
       <c r="G9">
         <f>C27-$K$23-($K$24-C29-$K$8-$K$9*C25-$K$10*C25^2)*K16</f>
-        <v>-6.5643689595162868E-8</v>
+        <v>5.0516609917394817E-7</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>20</v>
@@ -3024,18 +3935,18 @@
     </row>
     <row r="10" spans="1:12" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D10" s="22">
         <f>D7-D8+D9</f>
-        <v>-45061860538.89637</v>
+        <v>-45061860539.899086</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G10">
         <f>C28-C27-($K$25-C30--$K$8-$K$9*C26-$K$10*C26^2)*$K$17</f>
-        <v>-6.258778739720583E-8</v>
+        <v>5.4441989050246775E-7</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>21</v>
@@ -3050,39 +3961,39 @@
     </row>
     <row r="11" spans="1:12">
       <c r="C11" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1">
         <f>K12+2*K14*C21</f>
-        <v>280.86237769041264</v>
+        <v>280.86426679482713</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K11" s="15">
         <f>Dataset!B13</f>
         <v>1000</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1">
         <f>K13+2*K15*C22</f>
-        <v>294.51780114446387</v>
+        <v>294.51518240482653</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K12" s="15">
         <f>Dataset!B14</f>
@@ -3094,17 +4005,17 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" s="20" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1">
         <f>$K$8+$K$9*C25+$K$10*C25^2</f>
-        <v>6.0004494733192413</v>
+        <v>6.0003924472216292</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K13" s="15">
         <f>Dataset!B15</f>
@@ -3116,17 +4027,17 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="20" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
         <f>$K$8+$K$9*C26+$K$10*C26^2</f>
-        <v>8.9995505266514826</v>
+        <v>8.9996075530180022</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K14" s="15">
         <f>Dataset!B16</f>
@@ -3138,17 +4049,17 @@
     </row>
     <row r="15" spans="1:12">
       <c r="C15" s="20" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1">
         <f>C21+C25-C23</f>
-        <v>91.211055267403935</v>
+        <v>91.209364358939638</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="K15" s="15">
         <f>Dataset!B17</f>
@@ -3160,17 +4071,17 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" s="20" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1">
         <f>C22+C26-C24</f>
-        <v>200.25581543120643</v>
+        <v>200.25826247713121</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="K16" s="15">
         <f>Dataset!B18</f>
@@ -3182,17 +4093,17 @@
     </row>
     <row r="17" spans="1:12">
       <c r="C17" s="20" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D17" s="1">
         <f>100*D15/(C21+C23)</f>
-        <v>0.6141802147243407</v>
+        <v>0.61416634715270135</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="K17" s="15">
         <f>Dataset!B19</f>
@@ -3204,17 +4115,17 @@
     </row>
     <row r="18" spans="1:12">
       <c r="C18" s="20" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D18" s="1">
         <f>100*D16/(C22+C24)</f>
-        <v>1.5734065658183058</v>
+        <v>1.5734325223028731</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K18" s="15">
         <f>Dataset!B20</f>
@@ -3226,7 +4137,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="J19" s="15" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="K19" s="15">
         <f>Dataset!B21</f>
@@ -3238,16 +4149,17 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K20" s="15">
+        <f>Dataset!B22</f>
         <v>0</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3259,7 +4171,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="4">
-        <v>5521.5594422603162</v>
+        <v>5521.6066698706773</v>
       </c>
       <c r="D21" s="18">
         <f>K29</f>
@@ -3272,10 +4184,11 @@
         <v>23</v>
       </c>
       <c r="K21" s="15">
+        <f>Dataset!B23</f>
         <v>0</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3287,7 +4200,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="4">
-        <v>3575.2966857410643</v>
+        <v>3575.253040080443</v>
       </c>
       <c r="D22" s="18">
         <f>D21</f>
@@ -3300,10 +4213,11 @@
         <v>24</v>
       </c>
       <c r="K22" s="15">
+        <f>Dataset!B24</f>
         <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3315,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="4">
-        <v>9329.302418918609</v>
+        <v>9329.3151987386573</v>
       </c>
       <c r="D23" s="18">
         <f>K33</f>
@@ -3344,7 +4258,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="4">
-        <v>9152.2347598301112</v>
+        <v>9152.2239656721504</v>
       </c>
       <c r="D24" s="18">
         <f>D23</f>
@@ -3354,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K24" s="15">
         <f>Dataset!H9</f>
@@ -3373,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="4">
-        <v>3898.9540319256962</v>
+        <v>3898.9178932269192</v>
       </c>
       <c r="D25" s="18">
         <f>K31</f>
@@ -3383,7 +4297,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="K25" s="15">
         <f>Dataset!H10</f>
@@ -3402,7 +4316,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="4">
-        <v>5777.1938895202538</v>
+        <v>5777.2291880688381</v>
       </c>
       <c r="D26" s="18">
         <f>D25</f>
@@ -3429,7 +4343,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="4">
-        <v>67518.031306796081</v>
+        <v>67518.281081674431</v>
       </c>
       <c r="D27" s="18">
         <f>K35</f>
@@ -3439,7 +4353,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K27" s="15">
         <f>Dataset!B29</f>
@@ -3468,7 +4382,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K28" s="15">
         <f>Dataset!B30</f>
@@ -3497,7 +4411,7 @@
         <v>7</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="K29" s="15">
         <f>Dataset!B31</f>
@@ -3526,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="K30" s="15">
         <f>Dataset!B32</f>
@@ -3538,7 +4452,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="J31" s="15" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K31" s="15">
         <f>Dataset!B33</f>
@@ -3550,13 +4464,13 @@
     </row>
     <row r="32" spans="1:12">
       <c r="D32" s="19" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K32" s="15">
         <f>Dataset!B34</f>
@@ -3572,14 +4486,14 @@
       </c>
       <c r="D33" s="15">
         <f>K18-K19*C23</f>
-        <v>280.86627187502381</v>
+        <v>280.86528676389514</v>
       </c>
       <c r="E33" s="15">
         <f>D33*(1-2*$K$26*C25)</f>
-        <v>267.72525567711506</v>
+        <v>267.72443845809443</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K33" s="15">
         <f>Dataset!B35</f>
@@ -3595,14 +4509,14 @@
       </c>
       <c r="D34" s="15">
         <f>K18-K19*C24</f>
-        <v>294.51523726309551</v>
+        <v>294.51606931277172</v>
       </c>
       <c r="E34" s="15">
         <f>D34*(1-2*$K$26*C26)</f>
-        <v>274.09757771405197</v>
+        <v>274.09822732890314</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="K34" s="15">
         <f>Dataset!B36</f>
@@ -3614,7 +4528,7 @@
     </row>
     <row r="35" spans="3:12">
       <c r="J35" s="15" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K35" s="15">
         <f>Dataset!B37</f>
@@ -3626,19 +4540,19 @@
     </row>
     <row r="36" spans="3:12">
       <c r="J36" s="15" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="K36" s="15">
         <f>Dataset!B38</f>
         <v>50000</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="J37" s="15" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="K37" s="15">
         <f>Dataset!B39</f>
@@ -3650,7 +4564,7 @@
     </row>
     <row r="38" spans="3:12">
       <c r="J38" s="15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K38" s="15">
         <f>Dataset!B40</f>
@@ -3677,685 +4591,989 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E55" sqref="A7:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.7109375" style="29" customWidth="1"/>
-    <col min="2" max="3" width="19" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="29"/>
+    <col min="2" max="5" width="19" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1"/>
-    <row r="2" spans="1:3" s="11" customFormat="1"/>
-    <row r="3" spans="1:3" s="11" customFormat="1"/>
-    <row r="4" spans="1:3" s="11" customFormat="1"/>
-    <row r="5" spans="1:3" s="14" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
-    <row r="6" spans="1:3">
+    <row r="1" spans="1:5" s="11" customFormat="1"/>
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="18.75">
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="18.75">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1"/>
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="6" spans="1:5">
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="31" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5">
+        <v>145</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="5"/>
-      <c r="B8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5">
+      <c r="B8" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="33">
+        <v>52</v>
+      </c>
+      <c r="B9" s="32">
+        <v>8760000</v>
+      </c>
+      <c r="C9" s="33">
+        <v>8760000</v>
+      </c>
+      <c r="D9" s="49">
         <f>'R3'!B3</f>
         <v>8760000</v>
       </c>
-      <c r="C9" s="33">
+      <c r="E9" s="50">
         <f>'R4'!B3</f>
         <v>8760000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="34">
+        <v>56</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0</v>
+      </c>
+      <c r="C10" s="34">
+        <v>7054239300.4140759</v>
+      </c>
+      <c r="D10" s="51">
         <f>'R3'!B4</f>
         <v>0</v>
       </c>
-      <c r="C10" s="34">
+      <c r="E10" s="34">
         <f>'R4'!B4</f>
-        <v>7054218051.7750854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
+        <v>7054219848.1738329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="34">
+        <v>53</v>
+      </c>
+      <c r="B11" s="32">
+        <v>56699745855.333786</v>
+      </c>
+      <c r="C11" s="34">
+        <v>52116099839.996758</v>
+      </c>
+      <c r="D11" s="51">
         <f>'R3'!B5</f>
         <v>56699745855.333786</v>
       </c>
-      <c r="C11" s="34">
+      <c r="E11" s="34">
         <f>'R4'!B5</f>
-        <v>52116078590.671455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
+        <v>52116080388.072922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B12" s="35">
+        <v>-12536655000</v>
+      </c>
+      <c r="C12" s="35">
+        <v>-4401900000</v>
+      </c>
+      <c r="D12" s="52">
         <f>'R3'!B6</f>
         <v>0</v>
       </c>
-      <c r="C12" s="35">
+      <c r="E12" s="35">
         <f>'R4'!B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B13" s="32">
+        <v>-69236400855.333786</v>
+      </c>
+      <c r="C13" s="32">
+        <v>-49463760539.58268</v>
+      </c>
+      <c r="D13" s="51">
         <f>'R3'!B7</f>
         <v>-56699745855.333786</v>
       </c>
-      <c r="C13" s="32">
+      <c r="E13" s="34">
         <f>'R4'!B7</f>
-        <v>-45061860538.89637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5">
+        <v>-45061860539.899086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5">
+      <c r="D14" s="53"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5">
+      <c r="D15" s="53"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B16" s="37">
+        <v>0</v>
+      </c>
+      <c r="C16" s="37">
+        <v>5521.6192489172618</v>
+      </c>
+      <c r="D16" s="54">
         <f>'R3'!B10</f>
         <v>0</v>
       </c>
-      <c r="C16" s="37">
+      <c r="E16" s="55">
         <f>'R4'!B10</f>
-        <v>5521.5594422603162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5">
+        <v>5521.6066698706773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B17" s="38">
+        <v>13459.030064847519</v>
+      </c>
+      <c r="C17" s="38">
+        <v>3898.9124597974619</v>
+      </c>
+      <c r="D17" s="53">
         <f>'R3'!B11</f>
         <v>13459.030064847519</v>
       </c>
-      <c r="C17" s="38">
+      <c r="E17" s="38">
         <f>'R4'!B11</f>
-        <v>3898.9540319256962</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5">
+        <v>3898.9178932269192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B18" s="38">
+        <v>12372.157123210285</v>
+      </c>
+      <c r="C18" s="38">
+        <v>9329.3225985004647</v>
+      </c>
+      <c r="D18" s="53">
         <f>'R3'!B12</f>
         <v>12372.157123210285</v>
       </c>
-      <c r="C18" s="38">
+      <c r="E18" s="38">
         <f>'R4'!B12</f>
-        <v>9329.302418918609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5">
+        <v>9329.3151987386573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B19" s="38">
+        <v>1086.8729416372335</v>
+      </c>
+      <c r="C19" s="38">
+        <v>91.209110214258544</v>
+      </c>
+      <c r="D19" s="53">
         <f>'R3'!B13</f>
         <v>1086.8729416372335</v>
       </c>
-      <c r="C19" s="38">
+      <c r="E19" s="38">
         <f>'R4'!B13</f>
-        <v>91.211055267403935</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5">
+        <v>91.209364358939638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B20" s="39">
+        <v>8.7848297658477801</v>
+      </c>
+      <c r="C20" s="39">
+        <v>0.6141638096180273</v>
+      </c>
+      <c r="D20" s="56">
         <f>'R3'!B14</f>
         <v>8.7848297658477801</v>
       </c>
-      <c r="C20" s="39">
+      <c r="E20" s="39">
         <f>'R4'!B14</f>
-        <v>0.6141802147243407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5">
+        <v>0.61416634715270135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="5"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.5">
+      <c r="D21" s="53"/>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="5" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5">
+      <c r="D22" s="53"/>
+      <c r="E22" s="38"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B23" s="37">
+        <v>0</v>
+      </c>
+      <c r="C23" s="37">
+        <v>3575.2561235975213</v>
+      </c>
+      <c r="D23" s="54">
         <f>'R3'!B17</f>
         <v>0</v>
       </c>
-      <c r="C23" s="37">
+      <c r="E23" s="55">
         <f>'R4'!B17</f>
-        <v>3575.2966857410643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5">
+        <v>3575.253040080443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="5" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B24" s="38">
+        <v>13459.030064770663</v>
+      </c>
+      <c r="C24" s="38">
+        <v>5777.2344950076194</v>
+      </c>
+      <c r="D24" s="53">
         <f>'R3'!B18</f>
         <v>13459.030064770663</v>
       </c>
-      <c r="C24" s="38">
+      <c r="E24" s="38">
         <f>'R4'!B18</f>
-        <v>5777.1938895202538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5">
+        <v>5777.2291880688381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B25" s="38">
+        <v>12372.15712306426</v>
+      </c>
+      <c r="C25" s="38">
+        <v>9152.2319881439817</v>
+      </c>
+      <c r="D25" s="53">
         <f>'R3'!B19</f>
         <v>12372.15712306426</v>
       </c>
-      <c r="C25" s="38">
+      <c r="E25" s="38">
         <f>'R4'!B19</f>
-        <v>9152.2347598301112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5">
+        <v>9152.2239656721504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B26" s="38">
+        <v>1086.8729417064023</v>
+      </c>
+      <c r="C26" s="38">
+        <v>200.25863046115956</v>
+      </c>
+      <c r="D26" s="53">
         <f>'R3'!B20</f>
         <v>1086.8729417064023</v>
       </c>
-      <c r="C26" s="38">
+      <c r="E26" s="38">
         <f>'R4'!B20</f>
-        <v>200.25581543120643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5">
+        <v>200.25826247713121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B27" s="39">
+        <v>8.7848297665105335</v>
+      </c>
+      <c r="C27" s="39">
+        <v>1.5734340405819336</v>
+      </c>
+      <c r="D27" s="56">
         <f>'R3'!B21</f>
         <v>8.7848297665105335</v>
       </c>
-      <c r="C27" s="39">
+      <c r="E27" s="39">
         <f>'R4'!B21</f>
-        <v>1.5734065658183058</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5">
+        <v>1.5734325223028731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="5"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.5">
+      <c r="D28" s="53"/>
+      <c r="E28" s="38"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
-    </row>
-    <row r="30" spans="1:3" ht="16.5">
+      <c r="D29" s="53"/>
+      <c r="E29" s="38"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5">
       <c r="A30" s="5" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B30" s="37">
+        <v>40</v>
+      </c>
+      <c r="C30" s="37">
+        <v>10</v>
+      </c>
+      <c r="D30" s="54">
         <f>'R3'!B24</f>
         <v>40</v>
       </c>
-      <c r="C30" s="37">
+      <c r="E30" s="55">
         <f>'R4'!B24</f>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B31" s="38">
+        <v>6.5936073059360716</v>
+      </c>
+      <c r="C31" s="38">
+        <v>0</v>
+      </c>
+      <c r="D31" s="53">
         <f>'R3'!B25</f>
         <v>6.5936073059360716</v>
       </c>
-      <c r="C31" s="38">
+      <c r="E31" s="38">
         <f>'R4'!B25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5">
+    <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B32" s="38">
+        <v>22.000000000135969</v>
+      </c>
+      <c r="C32" s="38">
+        <v>6.0003838733878325</v>
+      </c>
+      <c r="D32" s="53">
         <f>'R3'!B26</f>
         <v>22.000000000135969</v>
       </c>
-      <c r="C32" s="38">
+      <c r="E32" s="38">
         <f>'R4'!B26</f>
-        <v>6.0004494733192413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5">
+        <v>6.0003924472216292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B33" s="38">
+        <v>50000</v>
+      </c>
+      <c r="C33" s="38">
+        <v>50000</v>
+      </c>
+      <c r="D33" s="53">
         <f>'R3'!B27</f>
         <v>50000</v>
       </c>
-      <c r="C33" s="38">
+      <c r="E33" s="38">
         <f>'R4'!B27</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B34" s="39">
+        <v>99960</v>
+      </c>
+      <c r="C34" s="39">
+        <v>67518.318634566604</v>
+      </c>
+      <c r="D34" s="56">
         <f>'R3'!B28</f>
         <v>99960</v>
       </c>
-      <c r="C34" s="39">
+      <c r="E34" s="39">
         <f>'R4'!B28</f>
-        <v>67518.031306796081</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5">
+        <v>67518.281081674431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="5"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5">
+      <c r="D35" s="53"/>
+      <c r="E35" s="38"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.5">
+      <c r="D36" s="53"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B37" s="37">
+        <v>30</v>
+      </c>
+      <c r="C37" s="37">
+        <v>5</v>
+      </c>
+      <c r="D37" s="54">
         <f>'R3'!B31</f>
         <v>30</v>
       </c>
-      <c r="C37" s="37">
+      <c r="E37" s="55">
         <f>'R4'!B31</f>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B38" s="38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="53">
         <f>'R3'!B32</f>
         <v>0</v>
       </c>
-      <c r="C38" s="38">
+      <c r="E38" s="38">
         <f>'R4'!B32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5">
+    <row r="39" spans="1:5" ht="16.5">
       <c r="A39" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B39" s="38">
+        <v>22</v>
+      </c>
+      <c r="C39" s="38">
+        <v>8.9996161266144892</v>
+      </c>
+      <c r="D39" s="53">
         <f>'R3'!B33</f>
         <v>22</v>
       </c>
-      <c r="C39" s="38">
+      <c r="E39" s="38">
         <f>'R4'!B33</f>
-        <v>8.9995505266514826</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5">
+        <v>8.9996075530180022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5">
       <c r="A40" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B40" s="39">
+        <v>135000</v>
+      </c>
+      <c r="C40" s="39">
+        <v>50000</v>
+      </c>
+      <c r="D40" s="56">
         <f>'R3'!B34</f>
         <v>135000</v>
       </c>
-      <c r="C40" s="39">
+      <c r="E40" s="39">
         <f>'R4'!B34</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5">
+    <row r="41" spans="1:5" ht="16.5">
       <c r="A41" s="5"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.5">
+      <c r="D41" s="53"/>
+      <c r="E41" s="38"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.5">
+      <c r="D42" s="53"/>
+      <c r="E42" s="38"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B43" s="37">
+        <v>46.312888419207184</v>
+      </c>
+      <c r="C43" s="37">
+        <v>280.86471636558917</v>
+      </c>
+      <c r="D43" s="54">
         <f>'R3'!B37</f>
         <v>46.312888419207184</v>
       </c>
-      <c r="C43" s="37">
+      <c r="E43" s="55">
         <f>'R4'!B37</f>
-        <v>280.86627187502381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5">
+        <v>280.86528676389514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5">
       <c r="A44" s="5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B44" s="38">
+        <v>38.832969727718726</v>
+      </c>
+      <c r="C44" s="38">
+        <v>267.72391305972587</v>
+      </c>
+      <c r="D44" s="53">
         <f>'R3'!B38</f>
         <v>38.832969727718726</v>
       </c>
-      <c r="C44" s="38">
+      <c r="E44" s="38">
         <f>'R4'!B38</f>
-        <v>267.72525567711506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5">
+        <v>267.72443845809443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="39" t="e">
+        <v>103</v>
+      </c>
+      <c r="B45" s="39">
+        <v>0</v>
+      </c>
+      <c r="C45" s="39">
+        <v>-19.367914785987125</v>
+      </c>
+      <c r="D45" s="56">
         <f>'R3'!B39/2</f>
+        <v>-23.156205408105023</v>
+      </c>
+      <c r="E45" s="39">
+        <f>'R4'!B39/2</f>
+        <v>-140.43219178082191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" hidden="1">
+      <c r="A46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="36" t="e">
         <v>#REF!</v>
       </c>
-      <c r="C45" s="39" t="e">
-        <f>'R4'!B39/2</f>
+      <c r="C46" s="36" t="e">
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" hidden="1">
-      <c r="A46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="36" t="e">
+      <c r="D46" s="53" t="e">
         <f>'R3'!B40</f>
         <v>#REF!</v>
       </c>
-      <c r="C46" s="36" t="e">
+      <c r="E46" s="38" t="e">
         <f>'R4'!B40</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" hidden="1">
+    <row r="47" spans="1:5" ht="16.5" hidden="1">
       <c r="A47" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B47" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C47" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D47" s="53" t="e">
         <f>'R3'!B41</f>
         <v>#REF!</v>
       </c>
-      <c r="C47" s="36" t="e">
+      <c r="E47" s="38" t="e">
         <f>'R4'!B41</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" hidden="1">
+    <row r="48" spans="1:5" ht="16.5" hidden="1">
       <c r="A48" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B48" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C48" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D48" s="53" t="e">
         <f>'R3'!B42</f>
         <v>#REF!</v>
       </c>
-      <c r="C48" s="36" t="e">
+      <c r="E48" s="38" t="e">
         <f>'R4'!B42</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" hidden="1">
+    <row r="49" spans="1:5" ht="16.5" hidden="1">
       <c r="A49" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B49" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C49" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D49" s="53" t="e">
         <f>'R3'!B43</f>
         <v>#REF!</v>
       </c>
-      <c r="C49" s="36" t="e">
+      <c r="E49" s="38" t="e">
         <f>'R4'!B43</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" hidden="1">
+    <row r="50" spans="1:5" ht="16.5" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B50" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C50" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D50" s="53" t="e">
         <f>'R3'!B44</f>
         <v>#REF!</v>
       </c>
-      <c r="C50" s="36" t="e">
+      <c r="E50" s="38" t="e">
         <f>'R4'!B44</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5">
+    <row r="51" spans="1:5" ht="16.5">
       <c r="A51" s="5"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
-    </row>
-    <row r="52" spans="1:3" ht="16.5">
+      <c r="D51" s="53"/>
+      <c r="E51" s="38"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5">
       <c r="A52" s="5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.5">
+      <c r="D52" s="53"/>
+      <c r="E52" s="38"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B53" s="37">
+        <v>46.312888430463204</v>
+      </c>
+      <c r="C53" s="37">
+        <v>294.51545091390142</v>
+      </c>
+      <c r="D53" s="54">
         <f>'R3'!B47</f>
         <v>46.312888430463204</v>
       </c>
-      <c r="C53" s="37">
+      <c r="E53" s="55">
         <f>'R4'!B47</f>
-        <v>294.51523726309551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5">
+        <v>294.51606931277172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5">
       <c r="A54" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B54" s="38">
+        <v>38.832969737199519</v>
+      </c>
+      <c r="C54" s="38">
+        <v>274.09763304591127</v>
+      </c>
+      <c r="D54" s="53">
         <f>'R3'!B48</f>
         <v>38.832969737199519</v>
       </c>
-      <c r="C54" s="38">
+      <c r="E54" s="38">
         <f>'R4'!B48</f>
-        <v>274.09757771405197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5">
+        <v>274.09822732890314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5">
       <c r="A55" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="39" t="e">
+        <v>104</v>
+      </c>
+      <c r="B55" s="39">
+        <v>0</v>
+      </c>
+      <c r="C55" s="39">
+        <v>-19.367837154351392</v>
+      </c>
+      <c r="D55" s="56">
         <f>'R3'!B49/2</f>
+        <v>-23.156205408105023</v>
+      </c>
+      <c r="E55" s="39">
+        <f>'R4'!B49/2</f>
+        <v>-147.25764840182649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1">
+      <c r="A56" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="36" t="e">
         <v>#REF!</v>
       </c>
-      <c r="C55" s="39" t="e">
-        <f>'R4'!B49/2</f>
+      <c r="C56" s="31" t="e">
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1">
-      <c r="A56" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="31" t="e">
+      <c r="D56" s="31" t="e">
         <f>'R3'!B50</f>
         <v>#REF!</v>
       </c>
-      <c r="C56" s="31" t="e">
+      <c r="E56" s="31" t="e">
         <f>'R4'!B50</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="31" t="e">
+        <v>147</v>
+      </c>
+      <c r="B57" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C57" s="31" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D57" s="31" t="e">
         <f>'R3'!B51</f>
         <v>#REF!</v>
       </c>
-      <c r="C57" s="31" t="e">
+      <c r="E57" s="31" t="e">
         <f>'R4'!B51</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="31" t="e">
+        <v>148</v>
+      </c>
+      <c r="B58" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="C58" s="31" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="D58" s="31" t="e">
         <f>'R3'!B52</f>
         <v>#REF!</v>
       </c>
-      <c r="C58" s="31" t="e">
+      <c r="E58" s="31" t="e">
         <f>'R4'!B52</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="31">
+        <v>149</v>
+      </c>
+      <c r="B59" s="36">
+        <v>0</v>
+      </c>
+      <c r="C59" s="31">
+        <v>0</v>
+      </c>
+      <c r="D59" s="31">
         <f>'R3'!B53</f>
         <v>0</v>
       </c>
-      <c r="C59" s="31">
+      <c r="E59" s="31">
         <f>'R4'!B53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="31">
+        <v>150</v>
+      </c>
+      <c r="B60" s="36">
+        <v>0</v>
+      </c>
+      <c r="C60" s="31">
+        <v>0</v>
+      </c>
+      <c r="D60" s="31">
         <f>'R3'!B54</f>
         <v>0</v>
       </c>
-      <c r="C60" s="31">
+      <c r="E60" s="31">
         <f>'R4'!B54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:5">
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
-    </row>
-    <row r="65" spans="2:3">
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
-    </row>
-    <row r="66" spans="2:3">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
-    </row>
-    <row r="67" spans="2:3">
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
-    </row>
-    <row r="68" spans="2:3">
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
-    </row>
-    <row r="69" spans="2:3">
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+    </row>
+    <row r="69" spans="2:5">
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
-    </row>
-    <row r="70" spans="2:3">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+    </row>
+    <row r="70" spans="2:5">
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
-    </row>
-    <row r="71" spans="2:3">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+    </row>
+    <row r="71" spans="2:5">
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -4367,12 +5585,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD52"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="16.5"/>
@@ -4384,17 +5602,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7">
         <f>('HTC CP4'!K16+'HTC CP4'!K17)*'HTC CP4'!K18</f>
@@ -4403,25 +5621,25 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7">
         <f>'HTC CP4'!D7</f>
-        <v>7054218051.7750854</v>
+        <v>7054219848.1738329</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7">
         <f>'HTC CP4'!D8</f>
-        <v>52116078590.671455</v>
+        <v>52116080388.072922</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8">
         <f>'HTC CP4'!D9</f>
@@ -4430,11 +5648,11 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B7" s="7">
         <f>'HTC CP4'!D10</f>
-        <v>-45061860538.89637</v>
+        <v>-45061860539.899086</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4442,53 +5660,53 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B10" s="7">
         <f>'HTC CP4'!C21</f>
-        <v>5521.5594422603162</v>
+        <v>5521.6066698706773</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B11" s="7">
         <f>'HTC CP4'!C25</f>
-        <v>3898.9540319256962</v>
+        <v>3898.9178932269192</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B12" s="7">
         <f>'HTC CP4'!C23</f>
-        <v>9329.302418918609</v>
+        <v>9329.3151987386573</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B13" s="7">
         <f>'HTC CP4'!D15</f>
-        <v>91.211055267403935</v>
+        <v>91.209364358939638</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B14" s="7">
         <f>'HTC CP4'!D17</f>
-        <v>0.6141802147243407</v>
+        <v>0.61416634715270135</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4496,53 +5714,53 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B17" s="7">
         <f>'HTC CP4'!C22</f>
-        <v>3575.2966857410643</v>
+        <v>3575.253040080443</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B18" s="7">
         <f>'HTC CP4'!C26</f>
-        <v>5777.1938895202538</v>
+        <v>5777.2291880688381</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B19" s="7">
         <f>'HTC CP4'!C24</f>
-        <v>9152.2347598301112</v>
+        <v>9152.2239656721504</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B20" s="7">
         <f>'HTC CP4'!D16</f>
-        <v>200.25581543120643</v>
+        <v>200.25826247713121</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B21" s="7">
         <f>'HTC CP4'!D18</f>
-        <v>1.5734065658183058</v>
+        <v>1.5734325223028731</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4550,13 +5768,13 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B24" s="7">
         <f>'HTC CP4'!K24</f>
@@ -4565,7 +5783,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B25" s="7">
         <f>'HTC CP4'!C29</f>
@@ -4574,16 +5792,16 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B26" s="7">
         <f>'HTC CP4'!D13</f>
-        <v>6.0004494733192413</v>
+        <v>6.0003924472216292</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B27" s="7">
         <f>'HTC CP4'!K23</f>
@@ -4592,11 +5810,11 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7">
         <f>'HTC CP4'!C27</f>
-        <v>67518.031306796081</v>
+        <v>67518.281081674431</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4604,13 +5822,13 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B31" s="7">
         <f>'HTC CP4'!K25</f>
@@ -4619,7 +5837,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B32" s="7">
         <f>'HTC CP4'!C30</f>
@@ -4628,16 +5846,16 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B33" s="7">
         <f>'HTC CP4'!D14</f>
-        <v>8.9995505266514826</v>
+        <v>8.9996075530180022</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B34" s="7">
         <f>'HTC CP4'!C28</f>
@@ -4649,40 +5867,40 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B37" s="10">
         <f>'HTC CP4'!D33</f>
-        <v>280.86627187502381</v>
+        <v>280.86528676389514</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B38" s="10">
         <f>'HTC CP4'!E33</f>
-        <v>267.72525567711506</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1">
+        <v>267.72443845809443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="10" t="e">
-        <f>#REF!/(8760/2)</f>
-        <v>#REF!</v>
+        <v>64</v>
+      </c>
+      <c r="B39" s="10">
+        <f>'4a'!E25/(8760/2)</f>
+        <v>-280.86438356164382</v>
       </c>
     </row>
     <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B40" s="10" t="e">
         <f>'HTC CP4'!#REF!</f>
@@ -4691,7 +5909,7 @@
     </row>
     <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B41" s="10" t="e">
         <f>'HTC CP4'!#REF!</f>
@@ -4700,7 +5918,7 @@
     </row>
     <row r="42" spans="1:2" hidden="1">
       <c r="A42" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B42" s="10" t="e">
         <f>'HTC CP4'!#REF!</f>
@@ -4709,7 +5927,7 @@
     </row>
     <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B43" s="10" t="e">
         <f>'HTC CP4'!#REF!</f>
@@ -4718,7 +5936,7 @@
     </row>
     <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B44" s="10" t="e">
         <f>'HTC CP4'!#REF!</f>
@@ -4730,39 +5948,39 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B47" s="10">
         <f>'HTC CP4'!D34</f>
-        <v>294.51523726309551</v>
+        <v>294.51606931277172</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B48" s="10">
         <f>'HTC CP4'!E34</f>
-        <v>274.09757771405197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1">
+        <v>274.09822732890314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="10" t="e">
-        <f>#REF!/(8760/2)</f>
-        <v>#REF!</v>
+        <v>72</v>
+      </c>
+      <c r="B49" s="10">
+        <f>'4a'!E26/(8760/2)</f>
+        <v>-294.51529680365297</v>
       </c>
     </row>
     <row r="50" spans="1:2" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B50" s="10" t="e">
         <f>'HTC CP4'!#REF!</f>
@@ -4771,7 +5989,7 @@
     </row>
     <row r="51" spans="1:2" hidden="1">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B51" s="10" t="e">
         <f>'HTC CP4'!#REF!</f>
@@ -4780,7 +5998,7 @@
     </row>
     <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B52" s="10" t="e">
         <f>'HTC CP4'!#REF!</f>
@@ -4789,7 +6007,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B53" s="10">
         <f>'HTC CP4'!H39</f>
@@ -4798,7 +6016,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B54" s="10">
         <f>'HTC CP4'!H40</f>
@@ -4815,12 +6033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="16.5"/>
@@ -4832,17 +6050,17 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7">
         <f>('HTC CP3'!K16+'HTC CP3'!K17)*'HTC CP3'!K18</f>
@@ -4851,7 +6069,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7">
         <f>'HTC CP3'!D7</f>
@@ -4860,7 +6078,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7">
         <f>'HTC CP3'!D8</f>
@@ -4869,7 +6087,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8">
         <f>'HTC CP3'!D9</f>
@@ -4878,7 +6096,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B7" s="7">
         <f>'HTC CP3'!D10</f>
@@ -4890,13 +6108,13 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B10" s="7">
         <f>'HTC CP3'!C21</f>
@@ -4905,7 +6123,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B11" s="7">
         <f>'HTC CP3'!C25</f>
@@ -4914,7 +6132,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B12" s="7">
         <f>'HTC CP3'!C23</f>
@@ -4923,7 +6141,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B13" s="7">
         <f>'HTC CP3'!D15</f>
@@ -4932,7 +6150,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B14" s="7">
         <f>'HTC CP3'!D17</f>
@@ -4944,13 +6162,13 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B17" s="7">
         <f>'HTC CP3'!C22</f>
@@ -4959,7 +6177,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B18" s="7">
         <f>'HTC CP3'!C26</f>
@@ -4968,7 +6186,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B19" s="7">
         <f>'HTC CP3'!C24</f>
@@ -4977,7 +6195,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B20" s="7">
         <f>'HTC CP3'!D16</f>
@@ -4986,7 +6204,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B21" s="7">
         <f>'HTC CP3'!D18</f>
@@ -4998,13 +6216,13 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B24" s="7">
         <f>'HTC CP3'!K24</f>
@@ -5013,7 +6231,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B25" s="7">
         <f>'HTC CP3'!C29</f>
@@ -5022,7 +6240,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B26" s="7">
         <f>'HTC CP3'!D13</f>
@@ -5031,7 +6249,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B27" s="7">
         <f>'HTC CP3'!K23</f>
@@ -5040,7 +6258,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7">
         <f>'HTC CP3'!C27</f>
@@ -5052,13 +6270,13 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B31" s="7">
         <f>'HTC CP3'!K25</f>
@@ -5067,7 +6285,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B32" s="7">
         <f>'HTC CP3'!C30</f>
@@ -5076,7 +6294,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B33" s="7">
         <f>'HTC CP3'!D14</f>
@@ -5085,7 +6303,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B34" s="7">
         <f>'HTC CP3'!C28</f>
@@ -5097,13 +6315,13 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B37" s="10">
         <f>'HTC CP3'!D33</f>
@@ -5112,25 +6330,25 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B38" s="10">
         <f>'HTC CP3'!E33</f>
         <v>38.832969727718726</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1">
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="10" t="e">
-        <f>#REF!/(8760/2)</f>
-        <v>#REF!</v>
+        <v>64</v>
+      </c>
+      <c r="B39" s="10">
+        <f>'3a'!E25/(8760/2)</f>
+        <v>-46.312410816210047</v>
       </c>
     </row>
     <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B40" s="10" t="e">
         <f>'HTC CP3'!#REF!</f>
@@ -5139,7 +6357,7 @@
     </row>
     <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B41" s="10" t="e">
         <f>'HTC CP3'!#REF!</f>
@@ -5148,7 +6366,7 @@
     </row>
     <row r="42" spans="1:2" hidden="1">
       <c r="A42" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B42" s="10" t="e">
         <f>'HTC CP3'!#REF!</f>
@@ -5157,7 +6375,7 @@
     </row>
     <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B43" s="10" t="e">
         <f>'HTC CP3'!#REF!</f>
@@ -5166,7 +6384,7 @@
     </row>
     <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B44" s="10" t="e">
         <f>'HTC CP3'!#REF!</f>
@@ -5178,12 +6396,12 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B47" s="10">
         <f>'HTC CP3'!D34</f>
@@ -5192,25 +6410,25 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B48" s="10">
         <f>'HTC CP3'!E34</f>
         <v>38.832969737199519</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1">
+    <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="10" t="e">
-        <f>#REF!/(8760/2)</f>
-        <v>#REF!</v>
+        <v>72</v>
+      </c>
+      <c r="B49" s="10">
+        <f>'3a'!E26/(8760/2)</f>
+        <v>-46.312410816210047</v>
       </c>
     </row>
     <row r="50" spans="1:2" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B50" s="10" t="e">
         <f>'HTC CP3'!#REF!</f>
@@ -5219,7 +6437,7 @@
     </row>
     <row r="51" spans="1:2" hidden="1">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B51" s="10" t="e">
         <f>'HTC CP3'!#REF!</f>
@@ -5228,7 +6446,7 @@
     </row>
     <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B52" s="10" t="e">
         <f>'HTC CP3'!#REF!</f>
@@ -5237,7 +6455,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B53" s="10">
         <f>'HTC CP3'!H39</f>
@@ -5246,7 +6464,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B54" s="10">
         <f>'HTC CP3'!H40</f>
@@ -5261,209 +6479,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010007192D8D28642E40AE7B2B917DF21BBF" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="20561b30105c9622becf5373dfa90785">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7ebc1fbb-280b-45cf-8e70-f42b5db0300a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03955ba9c5cd59bef2da191e3b7cd7a9" ns2:_="">
-    <xsd:import namespace="7ebc1fbb-280b-45cf-8e70-f42b5db0300a"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7ebc1fbb-280b-45cf-8e70-f42b5db0300a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37DC42-9017-46A2-A7E0-C0E93BC89EB5}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2268BBBA-BB1B-4FF6-9FDC-DE3B6F144557}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC6C2F62-6D60-4114-AE6B-F1F1198FE312}"/>
 </file>